--- a/Book1e.xlsx
+++ b/Book1e.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickAmooz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickAmooz\Pictures\Pictures\testproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8181A-DBB0-48F3-9F0E-B4A8493EDE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF64D51-CB59-4956-8FCE-CFE5A797B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="330" windowWidth="15375" windowHeight="9525" xr2:uid="{5B25AA9F-2B52-4F91-96A3-24E99EC4EF99}"/>
+    <workbookView xWindow="3120" yWindow="1770" windowWidth="10935" windowHeight="9150" xr2:uid="{5B25AA9F-2B52-4F91-96A3-24E99EC4EF99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -156,7 +156,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -475,7 +475,7 @@
   <dimension ref="B3:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,17 +488,25 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">

--- a/Book1e.xlsx
+++ b/Book1e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickAmooz\Pictures\Pictures\testproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF64D51-CB59-4956-8FCE-CFE5A797B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E176E-FB10-43CF-815F-ABE55150ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1770" windowWidth="10935" windowHeight="9150" xr2:uid="{5B25AA9F-2B52-4F91-96A3-24E99EC4EF99}"/>
   </bookViews>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F56161-C3EA-4F1D-BC6C-11BD895A0B95}">
-  <dimension ref="B3:D30"/>
+  <dimension ref="B3:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,81 +484,93 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
